--- a/biology/Zoologie/Chameau_occidental/Chameau_occidental.xlsx
+++ b/biology/Zoologie/Chameau_occidental/Chameau_occidental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chameau occidental, ou Camelops hesternus (signifiant littéralement Chameau d’hier), est une espèce éteinte de Camelidae du genre Camelops, endémique de l'Amérique du Nord. Il faisait partie de la mégafaune du Pléistocène. Il a disparu il y a environ 10 000 ans.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Camelops hesternus fut décrit pour la première fois par Joseph Leidy en 1873.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était légèrement plus grande que les chameaux actuels, avec un corps plus allongé, une hauteur au garrot de plus de 2 m, et pesant jusqu’à 800 kg. Sa denture laisse penser qu'il s'agissait d'un herbivore généraliste.
 </t>
@@ -573,7 +589,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles ont été trouvés principalement dans l'Ouest des États-Unis, par exemple à Rancho La Brea, mais aussi jusqu’au Yukon, au Canada.
 </t>
@@ -604,7 +622,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa plus grande proximité phylogénétique avec les chameaux et dromadaires de l’Ancien Monde ou les Lamas sud-américains est incertaine.
 </t>
@@ -635,7 +655,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Des indices montrent que cette espèce a fait l’objet de chasse par les Paléoindiens de la culture Clovis.
 </t>
